--- a/invoice/invoice_worksheet_v1.xlsx
+++ b/invoice/invoice_worksheet_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hao\Desktop\comoto_invoice_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hao\Desktop\Hao Dong io\haodong191.github.io\invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD01E40-25A4-4647-8196-A3901FA0C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4FCFC6-41F7-42F6-818B-6BFD2CAB4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="147">
   <si>
     <t>Input</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Total Extra Value</t>
+  </si>
+  <si>
+    <t>Rider’s Depot</t>
   </si>
 </sst>
 </file>
@@ -847,7 +850,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -875,36 +878,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,30 +923,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -966,29 +943,25 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,22 +982,43 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1312,7 +1306,7 @@
   <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+      <selection activeCell="N2" activeCellId="1" sqref="G1:G1048576 N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1324,7 @@
     <col min="11" max="11" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1343,44 +1337,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15" t="s">
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="20" t="s">
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1422,7 +1416,7 @@
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -1437,23 +1431,23 @@
       <c r="R2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="30" t="s">
+      <c r="W2" s="3"/>
+      <c r="X2" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1476,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H3" s="3">
         <v>10427570</v>
@@ -1497,8 +1491,8 @@
       <c r="M3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>6</v>
+      <c r="N3" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O3">
         <f>IFERROR(INDEX(A:A, MATCH(H3, A:A, 0)), "No Match")</f>
@@ -1532,10 +1526,10 @@
         <v>2799.9600000000005</v>
       </c>
       <c r="W3" s="2"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1558,7 +1552,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H4" s="3">
         <v>10427190</v>
@@ -1579,8 +1573,8 @@
       <c r="M4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>6</v>
+      <c r="N4" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O57" si="2">IFERROR(INDEX(A:A, MATCH(H4, A:A, 0)), "No Match")</f>
@@ -1613,14 +1607,13 @@
         <v>1679.9760000000001</v>
       </c>
       <c r="W4" s="2"/>
-      <c r="X4" s="34">
+      <c r="X4" s="51">
         <f>SUM(J1:J100) / SUM(C1:C100)</f>
         <v>0.5734526472781506</v>
       </c>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="31"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="53"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1643,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H5" s="3">
         <v>10377115</v>
@@ -1664,8 +1657,8 @@
       <c r="M5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>6</v>
+      <c r="N5" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -1697,11 +1690,11 @@
         <f t="shared" si="4"/>
         <v>4479.9360000000006</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="56"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1724,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H6" s="3">
         <v>10427184</v>
@@ -1745,8 +1738,8 @@
       <c r="M6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="17" t="s">
-        <v>6</v>
+      <c r="N6" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -1779,12 +1772,12 @@
         <v>559.99200000000008</v>
       </c>
       <c r="W6" s="2"/>
-      <c r="X6" s="30" t="s">
+      <c r="X6" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1807,7 +1800,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H7" s="3">
         <v>10427567</v>
@@ -1828,8 +1821,8 @@
       <c r="M7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="17" t="s">
-        <v>6</v>
+      <c r="N7" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -1862,10 +1855,10 @@
         <v>1119.9840000000002</v>
       </c>
       <c r="W7" s="2"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1888,7 +1881,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H8" s="3">
         <v>10377105</v>
@@ -1909,8 +1902,8 @@
       <c r="M8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>6</v>
+      <c r="N8" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
@@ -1938,14 +1931,13 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X8" s="40">
+      <c r="X8" s="30">
         <f>SUM(L1:L100)</f>
         <v>356870.82850000024</v>
       </c>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="32"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1968,7 +1960,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H9" s="3">
         <v>10427161</v>
@@ -1989,8 +1981,8 @@
       <c r="M9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>6</v>
+      <c r="N9" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -2018,11 +2010,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="31"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="35"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2045,7 +2036,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H10" s="11">
         <v>10377106</v>
@@ -2066,8 +2057,8 @@
       <c r="M10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="17" t="s">
-        <v>6</v>
+      <c r="N10" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
@@ -2095,10 +2086,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2121,7 +2112,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H11" s="3">
         <v>10377116</v>
@@ -2142,8 +2133,8 @@
       <c r="M11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>6</v>
+      <c r="N11" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
@@ -2171,12 +2162,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X11" s="54" t="s">
+      <c r="X11" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -2199,7 +2190,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H12" s="3">
         <v>10427185</v>
@@ -2220,8 +2211,8 @@
       <c r="M12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>6</v>
+      <c r="N12" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
@@ -2249,10 +2240,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -2275,7 +2266,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H13" s="3">
         <v>10427568</v>
@@ -2296,8 +2287,8 @@
       <c r="M13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="17" t="s">
-        <v>6</v>
+      <c r="N13" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
@@ -2325,13 +2316,13 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X13" s="61">
+      <c r="X13" s="37">
         <f>SUM(C1:C100) / SUM(J1:J100) - 1</f>
         <v>0.74382314694408325</v>
       </c>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="39"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -2354,7 +2345,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H14" s="3">
         <v>10427187</v>
@@ -2375,8 +2366,8 @@
       <c r="M14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>6</v>
+      <c r="N14" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
@@ -2404,10 +2395,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="66"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2430,7 +2421,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H15" s="3">
         <v>10457332</v>
@@ -2451,8 +2442,8 @@
       <c r="M15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>6</v>
+      <c r="N15" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
@@ -2480,12 +2471,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X15" s="54" t="s">
+      <c r="X15" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -2508,7 +2499,7 @@
         <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H16" s="3">
         <v>10377114</v>
@@ -2529,8 +2520,8 @@
       <c r="M16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="17" t="s">
-        <v>6</v>
+      <c r="N16" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
@@ -2558,10 +2549,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2584,7 +2575,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H17" s="3">
         <v>10427167</v>
@@ -2605,8 +2596,8 @@
       <c r="M17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="17" t="s">
-        <v>6</v>
+      <c r="N17" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
@@ -2634,13 +2625,13 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X17" s="55">
+      <c r="X17" s="43">
         <f>SUM(E1:E100) - SUM(L1:L100)</f>
         <v>183610.2329999996</v>
       </c>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -2663,7 +2654,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H18" s="3">
         <v>10427164</v>
@@ -2684,8 +2675,8 @@
       <c r="M18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N18" s="17" t="s">
-        <v>6</v>
+      <c r="N18" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
@@ -2713,10 +2704,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="60"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="48"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2739,7 +2730,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H19" s="3">
         <v>10427565</v>
@@ -2760,8 +2751,8 @@
       <c r="M19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="17" t="s">
-        <v>6</v>
+      <c r="N19" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
@@ -2789,10 +2780,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2815,7 +2806,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H20" s="3">
         <v>10427160</v>
@@ -2836,8 +2827,8 @@
       <c r="M20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N20" s="17" t="s">
-        <v>6</v>
+      <c r="N20" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
@@ -2865,12 +2856,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X20" s="47" t="s">
+      <c r="X20" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -2893,7 +2884,7 @@
         <v>34</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H21" s="3">
         <v>10427191</v>
@@ -2914,8 +2905,8 @@
       <c r="M21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="17" t="s">
-        <v>6</v>
+      <c r="N21" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
@@ -2943,10 +2934,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2969,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H22" s="3">
         <v>10427566</v>
@@ -2977,10 +2968,10 @@
       <c r="I22" s="3">
         <v>8980210905</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="3">
         <v>7</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="15">
         <v>149.49350000000001</v>
       </c>
       <c r="L22" s="8">
@@ -2990,8 +2981,8 @@
       <c r="M22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="17" t="s">
-        <v>6</v>
+      <c r="N22" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
@@ -3019,13 +3010,13 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X22" s="48" cm="1">
+      <c r="X22" s="18" cm="1">
         <f t="array" ref="X22">SUM(IF(ISNUMBER(U:U), U:U, 0))</f>
         <v>19</v>
       </c>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="50"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -3048,7 +3039,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H23" s="3">
         <v>10427576</v>
@@ -3069,8 +3060,8 @@
       <c r="M23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="17" t="s">
-        <v>6</v>
+      <c r="N23" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
@@ -3098,10 +3089,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="53"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="23"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -3124,7 +3115,7 @@
         <v>37</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3">
         <v>10377094</v>
@@ -3145,8 +3136,8 @@
       <c r="M24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N24" s="17" t="s">
-        <v>6</v>
+      <c r="N24" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
@@ -3174,12 +3165,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X24" s="47" t="s">
+      <c r="X24" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -3202,7 +3193,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H25" s="3">
         <v>10457328</v>
@@ -3223,8 +3214,8 @@
       <c r="M25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="17" t="s">
-        <v>6</v>
+      <c r="N25" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
@@ -3252,10 +3243,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -3278,7 +3269,7 @@
         <v>63</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H26" s="3">
         <v>10377107</v>
@@ -3299,8 +3290,8 @@
       <c r="M26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N26" s="17" t="s">
-        <v>6</v>
+      <c r="N26" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
@@ -3357,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H27" s="3">
         <v>10427170</v>
@@ -3378,8 +3369,8 @@
       <c r="M27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N27" s="17" t="s">
-        <v>6</v>
+      <c r="N27" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
@@ -3433,7 +3424,7 @@
         <v>65</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H28" s="3">
         <v>10377096</v>
@@ -3454,8 +3445,8 @@
       <c r="M28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>6</v>
+      <c r="N28" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
@@ -3505,7 +3496,7 @@
         <v>66</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H29" s="3">
         <v>10427563</v>
@@ -3526,8 +3517,8 @@
       <c r="M29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="17" t="s">
-        <v>6</v>
+      <c r="N29" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
@@ -3577,7 +3568,7 @@
         <v>67</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H30" s="3">
         <v>10377112</v>
@@ -3598,8 +3589,8 @@
       <c r="M30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N30" s="17" t="s">
-        <v>6</v>
+      <c r="N30" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
@@ -3649,7 +3640,7 @@
         <v>68</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H31" s="3">
         <v>10377111</v>
@@ -3670,8 +3661,8 @@
       <c r="M31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N31" s="17" t="s">
-        <v>6</v>
+      <c r="N31" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
@@ -3721,7 +3712,7 @@
         <v>69</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H32" s="3">
         <v>10427571</v>
@@ -3742,8 +3733,8 @@
       <c r="M32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="17" t="s">
-        <v>6</v>
+      <c r="N32" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
@@ -3793,7 +3784,7 @@
         <v>70</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H33" s="3">
         <v>10427188</v>
@@ -3814,8 +3805,8 @@
       <c r="M33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="17" t="s">
-        <v>6</v>
+      <c r="N33" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
@@ -3865,7 +3856,7 @@
         <v>71</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H34" s="3">
         <v>10377104</v>
@@ -3886,8 +3877,8 @@
       <c r="M34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="17" t="s">
-        <v>6</v>
+      <c r="N34" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
@@ -3937,7 +3928,7 @@
         <v>72</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H35" s="3">
         <v>10377109</v>
@@ -3958,8 +3949,8 @@
       <c r="M35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N35" s="17" t="s">
-        <v>6</v>
+      <c r="N35" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O35">
         <f t="shared" si="2"/>
@@ -4009,7 +4000,7 @@
         <v>73</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H36" s="3">
         <v>10377103</v>
@@ -4030,8 +4021,8 @@
       <c r="M36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N36" s="17" t="s">
-        <v>6</v>
+      <c r="N36" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
@@ -4081,7 +4072,7 @@
         <v>74</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H37" s="3">
         <v>10427165</v>
@@ -4102,8 +4093,8 @@
       <c r="M37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N37" s="17" t="s">
-        <v>6</v>
+      <c r="N37" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
@@ -4153,7 +4144,7 @@
         <v>75</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H38" s="3">
         <v>10457330</v>
@@ -4174,8 +4165,8 @@
       <c r="M38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N38" s="17" t="s">
-        <v>6</v>
+      <c r="N38" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O38">
         <f t="shared" si="2"/>
@@ -4225,7 +4216,7 @@
         <v>76</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H39" s="3">
         <v>10427163</v>
@@ -4246,8 +4237,8 @@
       <c r="M39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N39" s="17" t="s">
-        <v>6</v>
+      <c r="N39" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O39">
         <f t="shared" si="2"/>
@@ -4297,7 +4288,7 @@
         <v>77</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H40" s="3">
         <v>10427569</v>
@@ -4318,8 +4309,8 @@
       <c r="M40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="17" t="s">
-        <v>6</v>
+      <c r="N40" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
@@ -4369,7 +4360,7 @@
         <v>78</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H41" s="3">
         <v>10377101</v>
@@ -4390,8 +4381,8 @@
       <c r="M41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N41" s="17" t="s">
-        <v>6</v>
+      <c r="N41" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
@@ -4441,7 +4432,7 @@
         <v>79</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H42" s="3">
         <v>10457333</v>
@@ -4462,8 +4453,8 @@
       <c r="M42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N42" s="17" t="s">
-        <v>6</v>
+      <c r="N42" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O42">
         <f t="shared" si="2"/>
@@ -4513,7 +4504,7 @@
         <v>80</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H43" s="3">
         <v>10377098</v>
@@ -4534,8 +4525,8 @@
       <c r="M43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N43" s="17" t="s">
-        <v>6</v>
+      <c r="N43" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
@@ -4585,7 +4576,7 @@
         <v>81</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H44" s="3">
         <v>10377102</v>
@@ -4606,8 +4597,8 @@
       <c r="M44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N44" s="17" t="s">
-        <v>6</v>
+      <c r="N44" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O44">
         <f t="shared" si="2"/>
@@ -4657,7 +4648,7 @@
         <v>82</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H45" s="3">
         <v>10427189</v>
@@ -4678,8 +4669,8 @@
       <c r="M45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N45" s="17" t="s">
-        <v>6</v>
+      <c r="N45" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O45">
         <f t="shared" si="2"/>
@@ -4729,7 +4720,7 @@
         <v>83</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H46" s="3">
         <v>10377097</v>
@@ -4750,8 +4741,8 @@
       <c r="M46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N46" s="17" t="s">
-        <v>6</v>
+      <c r="N46" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O46">
         <f t="shared" si="2"/>
@@ -4801,7 +4792,7 @@
         <v>84</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H47" s="3">
         <v>10377100</v>
@@ -4822,8 +4813,8 @@
       <c r="M47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N47" s="17" t="s">
-        <v>6</v>
+      <c r="N47" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O47">
         <f t="shared" si="2"/>
@@ -4873,7 +4864,7 @@
         <v>85</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H48" s="3">
         <v>10427171</v>
@@ -4894,8 +4885,8 @@
       <c r="M48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N48" s="17" t="s">
-        <v>6</v>
+      <c r="N48" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O48">
         <f t="shared" si="2"/>
@@ -4945,7 +4936,7 @@
         <v>86</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H49" s="3">
         <v>10427162</v>
@@ -4966,8 +4957,8 @@
       <c r="M49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N49" s="17" t="s">
-        <v>6</v>
+      <c r="N49" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O49">
         <f t="shared" si="2"/>
@@ -5017,7 +5008,7 @@
         <v>87</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H50" s="3">
         <v>10427173</v>
@@ -5038,8 +5029,8 @@
       <c r="M50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N50" s="17" t="s">
-        <v>6</v>
+      <c r="N50" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O50">
         <f t="shared" si="2"/>
@@ -5089,7 +5080,7 @@
         <v>88</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H51" s="3">
         <v>10377093</v>
@@ -5110,8 +5101,8 @@
       <c r="M51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N51" s="17" t="s">
-        <v>6</v>
+      <c r="N51" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O51">
         <f t="shared" si="2"/>
@@ -5151,7 +5142,7 @@
         <v>89</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H52" s="3">
         <v>10427575</v>
@@ -5172,8 +5163,8 @@
       <c r="M52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N52" s="17" t="s">
-        <v>6</v>
+      <c r="N52" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O52">
         <f t="shared" si="2"/>
@@ -5213,7 +5204,7 @@
         <v>90</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H53">
         <v>10353748</v>
@@ -5234,8 +5225,8 @@
       <c r="M53" t="s">
         <v>133</v>
       </c>
-      <c r="N53" s="17" t="s">
-        <v>6</v>
+      <c r="N53" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O53" t="str">
         <f>IFERROR(INDEX(A:A, MATCH(H53, A:A, 0)), "No Match")</f>
@@ -5275,7 +5266,7 @@
         <v>91</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H54">
         <v>10353749</v>
@@ -5296,8 +5287,8 @@
       <c r="M54" t="s">
         <v>134</v>
       </c>
-      <c r="N54" s="17" t="s">
-        <v>6</v>
+      <c r="N54" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="2"/>
@@ -5337,7 +5328,7 @@
         <v>92</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H55">
         <v>10353750</v>
@@ -5358,8 +5349,8 @@
       <c r="M55" t="s">
         <v>135</v>
       </c>
-      <c r="N55" s="17" t="s">
-        <v>6</v>
+      <c r="N55" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="2"/>
@@ -5399,7 +5390,7 @@
         <v>93</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H56">
         <v>10353751</v>
@@ -5420,8 +5411,8 @@
       <c r="M56" t="s">
         <v>136</v>
       </c>
-      <c r="N56" s="17" t="s">
-        <v>6</v>
+      <c r="N56" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="2"/>
@@ -5461,7 +5452,7 @@
         <v>94</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="H57">
         <v>10353752</v>
@@ -5482,8 +5473,8 @@
       <c r="M57" t="s">
         <v>137</v>
       </c>
-      <c r="N57" s="17" t="s">
-        <v>6</v>
+      <c r="N57" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="2"/>
@@ -5523,7 +5514,7 @@
         <v>95</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -5547,7 +5538,7 @@
         <v>96</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -5571,7 +5562,7 @@
         <v>97</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -5595,7 +5586,7 @@
         <v>98</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -5619,7 +5610,7 @@
         <v>99</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -5643,7 +5634,7 @@
         <v>100</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -5667,7 +5658,7 @@
         <v>101</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,7 +5682,7 @@
         <v>102</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5715,7 +5706,7 @@
         <v>103</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -5739,7 +5730,7 @@
         <v>104</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5763,7 +5754,7 @@
         <v>105</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5787,7 +5778,7 @@
         <v>106</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5811,7 +5802,7 @@
         <v>107</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5835,7 +5826,7 @@
         <v>108</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,7 +5850,7 @@
         <v>109</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5883,7 +5874,7 @@
         <v>110</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5907,7 +5898,7 @@
         <v>111</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5931,7 +5922,7 @@
         <v>112</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5955,7 +5946,7 @@
         <v>113</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5979,7 +5970,7 @@
         <v>114</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -6003,7 +5994,7 @@
         <v>115</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -6027,7 +6018,7 @@
         <v>116</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6051,7 +6042,7 @@
         <v>117</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6075,11 +6066,19 @@
         <v>118</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="X6:AA7"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="X20:AA21"/>
     <mergeCell ref="X22:AA23"/>
     <mergeCell ref="X24:AA25"/>
@@ -6089,14 +6088,6 @@
     <mergeCell ref="X13:AA14"/>
     <mergeCell ref="X15:AA16"/>
     <mergeCell ref="X17:AA18"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="X6:AA7"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6120,33 +6111,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">

--- a/invoice/invoice_worksheet_v1.xlsx
+++ b/invoice/invoice_worksheet_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hao\Desktop\Hao Dong io\haodong191.github.io\invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4FCFC6-41F7-42F6-818B-6BFD2CAB4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4251AAB-C637-48A0-9048-B868C3EBBA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="148">
   <si>
     <t>Input</t>
   </si>
@@ -110,75 +110,9 @@
     <t>MFG SKU</t>
   </si>
   <si>
-    <t>HJC RPHA 12N Venom Helmet XS / Red/Black XS / Red/Black</t>
-  </si>
-  <si>
-    <t>HJC RPHA 12N Venom Helmet SM / Red/Black SM / Red/Black</t>
-  </si>
-  <si>
-    <t>HJC RPHA 12N Venom Helmet MD / Red/Black MD / Red/Black</t>
-  </si>
-  <si>
-    <t>HJC RPHA 12N Venom Helmet LG / Red/Black LG / Red/Black</t>
-  </si>
-  <si>
-    <t>HJC RPHA 12N Venom Helmet XL / Red/Black XL / Red/Black</t>
-  </si>
-  <si>
-    <t>HJC RPHA 12N Venom Helmet 2XL / Red/Black 2XL / Red/Black</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black / 3XL</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black / 2XL</t>
-  </si>
-  <si>
     <t>Cortech Chicane Leather Jacket Black / XL</t>
   </si>
   <si>
-    <t>Cortech Chicane Leather Jacket Black / LG</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black / MD</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black / SM</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/White / 3XL</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/White / 2XL</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/White / XL</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/White / LG</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/White / MD</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/White / SM</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/Red / 2XL</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/Red / XL</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/Red / LG</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/Red / MD</t>
-  </si>
-  <si>
-    <t>Cortech Chicane Leather Jacket Black/Red / SM</t>
-  </si>
-  <si>
     <t>0120-1205-03</t>
   </si>
   <si>
@@ -251,174 +185,6 @@
     <t>0120-1210-08</t>
   </si>
   <si>
-    <t>Shoei Neotec 3 Grasp Helmet White/Matte Black/Red / XS</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet White/Matte Black/Red / SM</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet White/Matte Black/Red / MD</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet White/Matte Black/Red / LG</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet White/Matte Black/Red / XL</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet White/Matte Black/Red / 2XL</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / XS</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / SM</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / MD</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / LG</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / XL</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / 2XL</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet XS / Red/Matte Black</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet SM / Red/Matte Black</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet MD / Red/Matte Black</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet LG / Red/Matte Black</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet XL / Red/Matte Black</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet 2XL / Red/Matte Black</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet XS / White/Blue/Red</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet SM / White/Blue/Red</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet MD / White/Blue/Red</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet LG / White/Blue/Red</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet XL / White/Blue/Red</t>
-  </si>
-  <si>
-    <t>Shoei Neotec 3 Grasp Helmet 2XL / White/Blue/Red</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Black / 5XL</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Black / 4XL</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Black / 3XL</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Black / 2XL</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Black / XL</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Black / LG</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Black / MD</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Black / SM</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Grey/Black / 3XL</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Grey/Black / 2XL</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Grey/Black / XL</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Grey/Black / LG</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Grey/Black / MD</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket Grey/Black / SM</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket 3XL / Grey/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket 2XL / Grey/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket XL / Grey/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket LG / Grey/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket MD / Grey/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket SM / Grey/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket 3XL / Orange/Sand</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket 2XL / Orange/Sand</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket XL / Orange/Sand</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket LG / Orange/Sand</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket MD / Orange/Sand</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket SM / Orange/Sand</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket 3XL / Sand/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket 2XL / Sand/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket XL / Sand/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket LG / Sand/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket MD / Sand/Grey</t>
-  </si>
-  <si>
-    <t>Tourmaster Trek Jacket SM / Sand/Grey</t>
-  </si>
-  <si>
     <t>Received</t>
   </si>
   <si>
@@ -461,21 +227,6 @@
     <t>HJC RPHA 1N Joker Helmet</t>
   </si>
   <si>
-    <t>HJC RPHA 1N Joker Helmet 2XL / Purple/Green/White</t>
-  </si>
-  <si>
-    <t>HJC RPHA 1N Joker Helmet XL / Purple/Green/White</t>
-  </si>
-  <si>
-    <t>HJC RPHA 1N Joker Helmet LG / Purple/Green/White</t>
-  </si>
-  <si>
-    <t>HJC RPHA 1N Joker Helmet MD / Purple/Green/White</t>
-  </si>
-  <si>
-    <t>HJC RPHA 1N Joker Helmet SM / Purple/Green/White</t>
-  </si>
-  <si>
     <t>Extra Items</t>
   </si>
   <si>
@@ -501,6 +252,258 @@
   </si>
   <si>
     <t>Rider’s Depot</t>
+  </si>
+  <si>
+    <t>HCT BFH 12N Venom Helmet XS / Red/Black XS / Red/Black</t>
+  </si>
+  <si>
+    <t>HCT BFH 12N Venom Helmet SM / Red/Black SM / Red/Black</t>
+  </si>
+  <si>
+    <t>HCT BFH 12N Venom Helmet MD / Red/Black MD / Red/Black</t>
+  </si>
+  <si>
+    <t>HCT BFH 12N Venom Helmet LG / Red/Black LG / Red/Black</t>
+  </si>
+  <si>
+    <t>HCT BFH 12N Venom Helmet XL / Red/Black XL / Red/Black</t>
+  </si>
+  <si>
+    <t>HCT BFH 12N Venom Helmet 2XL / Red/Black 2XL / Red/Black</t>
+  </si>
+  <si>
+    <t>HCT BFH 1N Joker Helmet 2XL / Purple/Green/White</t>
+  </si>
+  <si>
+    <t>HCT BFH 1N Joker Helmet XL / Purple/Green/White</t>
+  </si>
+  <si>
+    <t>HCT BFH 1N Joker Helmet LG / Purple/Green/White</t>
+  </si>
+  <si>
+    <t>HCT BFH 1N Joker Helmet MD / Purple/Green/White</t>
+  </si>
+  <si>
+    <t>HCT BFH 1N Joker Helmet SM / Purple/Green/White</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Black / MD</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Black / 5XL</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket 2XL / Grey/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Black / 4XL</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Black / 2XL</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Grey/Black / 2XL</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket MD / Grey/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket 3XL / Grey/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Black / SM</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Grey/Black / MD</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Black / XL</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket SM / Grey/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket LG / Grey/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Black / LG</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Grey/Black / SM</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket XL / Grey/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket 2XL / Sand/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Black / 3XL</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Grey/Black / 3XL</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Grey/Black / XL</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket Grey/Black / LG</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket 3XL / Orange/Sand</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket 2XL / Orange/Sand</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket XL / Orange/Sand</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket LG / Orange/Sand</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket MD / Orange/Sand</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket SM / Orange/Sand</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket 3XL / Sand/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket XL / Sand/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket LG / Sand/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket MD / Sand/Grey</t>
+  </si>
+  <si>
+    <t>Globemaster Trek Jacket SM / Sand/Grey</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black / XL</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/White / SM</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black / 3XL</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black / 2XL</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black / LG</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black / MD</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black / SM</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/White / 3XL</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/White / 2XL</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/White / XL</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/White / LG</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/White / MD</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/Red / 2XL</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/Red / XL</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/Red / LG</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/Red / MD</t>
+  </si>
+  <si>
+    <t>Tactic Chicane Leather Jacket Black/Red / SM</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet XL / White/Blue/Red</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet White/Matte Black/Red / XS</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet White/Matte Black/Red / SM</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet 2XL / White/Blue/Red</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet LG / White/Blue/Red</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet SM / Red/Matte Black</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet White/Matte Black/Red / MD</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet LG / Red/Matte Black</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet White/Matte Black/Red / LG</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet White/Matte Black/Red / XL</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet SM / White/Blue/Red</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet White/Matte Black/Red / 2XL</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet XS / White/Blue/Red</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / XS</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / SM</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / MD</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / 2XL</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / LG</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet Matte Black/Hi-Viz Yellow / XL</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet XS / Red/Matte Black</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet MD / Red/Matte Black</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet XL / Red/Matte Black</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet 2XL / Red/Matte Black</t>
+  </si>
+  <si>
+    <t>Voltax Naotec 3 Grasp Helmet MD / White/Blue/Red</t>
   </si>
 </sst>
 </file>
@@ -886,6 +889,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,42 +1019,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1306,7 +1309,7 @@
   <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" activeCellId="1" sqref="G1:G1048576 N1:N1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,44 +1340,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
+      <c r="A1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1423,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>1</v>
@@ -1442,12 +1445,12 @@
         <v>4</v>
       </c>
       <c r="W2" s="3"/>
-      <c r="X2" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
+      <c r="X2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1467,10 +1470,10 @@
         <v>8399.880000000001</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H3" s="3">
         <v>10427570</v>
@@ -1489,10 +1492,10 @@
         <v>1046.4545000000001</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O3">
         <f>IFERROR(INDEX(A:A, MATCH(H3, A:A, 0)), "No Match")</f>
@@ -1515,7 +1518,7 @@
         <v>10353748</v>
       </c>
       <c r="T3" t="str">
-        <v>HJC RPHA 1N Joker Helmet 2XL / Purple/Green/White</v>
+        <v>HCT BFH 1N Joker Helmet 2XL / Purple/Green/White</v>
       </c>
       <c r="U3">
         <f>INDEX(J:J, MATCH(S3, H:H, 0))</f>
@@ -1526,10 +1529,10 @@
         <v>2799.9600000000005</v>
       </c>
       <c r="W3" s="2"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1549,10 +1552,10 @@
         <v>11024.842500000001</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3">
         <v>10427190</v>
@@ -1571,10 +1574,10 @@
         <v>3359.88</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O57" si="2">IFERROR(INDEX(A:A, MATCH(H4, A:A, 0)), "No Match")</f>
@@ -1596,7 +1599,7 @@
         <v>10353749</v>
       </c>
       <c r="T4" t="str">
-        <v>HJC RPHA 1N Joker Helmet XL / Purple/Green/White</v>
+        <v>HCT BFH 1N Joker Helmet XL / Purple/Green/White</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U50" si="3">INDEX(J:J, MATCH(S4, H:H, 0))</f>
@@ -1607,13 +1610,13 @@
         <v>1679.9760000000001</v>
       </c>
       <c r="W4" s="2"/>
-      <c r="X4" s="51">
+      <c r="X4" s="19">
         <f>SUM(J1:J100) / SUM(C1:C100)</f>
         <v>0.5734526472781506</v>
       </c>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="53"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1633,16 +1636,16 @@
         <v>5774.9175000000005</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3">
         <v>10377115</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3">
         <v>29</v>
@@ -1655,10 +1658,10 @@
         <v>24359.768000000004</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
@@ -1680,7 +1683,7 @@
         <v>10353750</v>
       </c>
       <c r="T5" t="str">
-        <v>HJC RPHA 1N Joker Helmet LG / Purple/Green/White</v>
+        <v>HCT BFH 1N Joker Helmet LG / Purple/Green/White</v>
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
@@ -1691,10 +1694,10 @@
         <v>4479.9360000000006</v>
       </c>
       <c r="W5" s="2"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="56"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="24"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1714,10 +1717,10 @@
         <v>2624.9625000000005</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3">
         <v>10427184</v>
@@ -1736,10 +1739,10 @@
         <v>2687.904</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
@@ -1761,7 +1764,7 @@
         <v>10353751</v>
       </c>
       <c r="T6" t="str">
-        <v>HJC RPHA 1N Joker Helmet MD / Purple/Green/White</v>
+        <v>HCT BFH 1N Joker Helmet MD / Purple/Green/White</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
@@ -1772,12 +1775,12 @@
         <v>559.99200000000008</v>
       </c>
       <c r="W6" s="2"/>
-      <c r="X6" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
+      <c r="X6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1797,10 +1800,10 @@
         <v>11549.835000000001</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H7" s="3">
         <v>10427567</v>
@@ -1819,10 +1822,10 @@
         <v>4335.3115000000007</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
@@ -1844,7 +1847,7 @@
         <v>10353752</v>
       </c>
       <c r="T7" t="str">
-        <v>HJC RPHA 1N Joker Helmet SM / Purple/Green/White</v>
+        <v>HCT BFH 1N Joker Helmet SM / Purple/Green/White</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
@@ -1855,10 +1858,10 @@
         <v>1119.9840000000002</v>
       </c>
       <c r="W7" s="2"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1878,16 +1881,16 @@
         <v>11103.592500000001</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H8" s="3">
         <v>10377105</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J8" s="3">
         <v>14</v>
@@ -1900,10 +1903,10 @@
         <v>11759.888000000001</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
@@ -1931,13 +1934,13 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="42">
         <f>SUM(L1:L100)</f>
         <v>356870.82850000024</v>
       </c>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="32"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="44"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1957,10 +1960,10 @@
         <v>2092.9090000000001</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3">
         <v>10427161</v>
@@ -1979,10 +1982,10 @@
         <v>1847.934</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
@@ -2010,10 +2013,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="35"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="47"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2033,16 +2036,16 @@
         <v>1345.4415000000001</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H10" s="11">
         <v>10377106</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J10" s="3">
         <v>4</v>
@@ -2055,10 +2058,10 @@
         <v>3359.9680000000003</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
@@ -2109,16 +2112,16 @@
         <v>1345.4415000000001</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3">
         <v>10377116</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3">
         <v>20</v>
@@ -2131,10 +2134,10 @@
         <v>16799.84</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
@@ -2162,12 +2165,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X11" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
+      <c r="X11" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -2187,10 +2190,10 @@
         <v>3737.3375000000001</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3">
         <v>10427185</v>
@@ -2209,10 +2212,10 @@
         <v>1511.9459999999999</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
@@ -2240,10 +2243,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -2263,10 +2266,10 @@
         <v>1793.922</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3">
         <v>10427568</v>
@@ -2285,10 +2288,10 @@
         <v>1494.9350000000002</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
@@ -2316,13 +2319,13 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X13" s="37">
+      <c r="X13" s="49">
         <f>SUM(C1:C100) / SUM(J1:J100) - 1</f>
         <v>0.74382314694408325</v>
       </c>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="39"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="51"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -2342,10 +2345,10 @@
         <v>4185.8180000000002</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H14" s="3">
         <v>10427187</v>
@@ -2364,10 +2367,10 @@
         <v>1175.9580000000001</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
@@ -2395,10 +2398,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2418,10 +2421,10 @@
         <v>2242.4025000000001</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H15" s="3">
         <v>10457332</v>
@@ -2440,10 +2443,10 @@
         <v>10499.850000000002</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
@@ -2471,12 +2474,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X15" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
+      <c r="X15" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -2496,16 +2499,16 @@
         <v>3737.3375000000001</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H16" s="3">
         <v>10377114</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J16" s="3">
         <v>18</v>
@@ -2518,10 +2521,10 @@
         <v>15119.856000000002</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
@@ -2549,10 +2552,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2572,10 +2575,10 @@
         <v>896.96100000000001</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3">
         <v>10427167</v>
@@ -2594,10 +2597,10 @@
         <v>2855.8980000000001</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
@@ -2625,13 +2628,13 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X17" s="43">
+      <c r="X17" s="55">
         <f>SUM(E1:E100) - SUM(L1:L100)</f>
         <v>183610.2329999996</v>
       </c>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="45"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
     </row>
     <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -2651,10 +2654,10 @@
         <v>896.96100000000001</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H18" s="3">
         <v>10427164</v>
@@ -2673,10 +2676,10 @@
         <v>1847.934</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
@@ -2704,10 +2707,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="48"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="60"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2727,10 +2730,10 @@
         <v>1046.4545000000001</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H19" s="3">
         <v>10427565</v>
@@ -2749,10 +2752,10 @@
         <v>896.96100000000001</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
@@ -2803,10 +2806,10 @@
         <v>4335.3115000000007</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3">
         <v>10427160</v>
@@ -2825,10 +2828,10 @@
         <v>2183.922</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
@@ -2856,12 +2859,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X20" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
+      <c r="X20" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -2881,10 +2884,10 @@
         <v>3438.3505000000005</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H21" s="3">
         <v>10427191</v>
@@ -2903,10 +2906,10 @@
         <v>2855.8980000000001</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
@@ -2934,10 +2937,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2957,10 +2960,10 @@
         <v>3288.8570000000004</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H22" s="3">
         <v>10427566</v>
@@ -2979,10 +2982,10 @@
         <v>1046.4545000000001</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
@@ -3010,13 +3013,13 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X22" s="18" cm="1">
+      <c r="X22" s="30" cm="1">
         <f t="array" ref="X22">SUM(IF(ISNUMBER(U:U), U:U, 0))</f>
         <v>19</v>
       </c>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="20"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="32"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -3036,10 +3039,10 @@
         <v>3587.8440000000001</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H23" s="3">
         <v>10427576</v>
@@ -3058,10 +3061,10 @@
         <v>3438.3505000000005</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
@@ -3089,10 +3092,10 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="23"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="35"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -3112,16 +3115,16 @@
         <v>4036.3245000000002</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H24" s="3">
         <v>10377094</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3">
         <v>14</v>
@@ -3134,10 +3137,10 @@
         <v>11759.888000000001</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
@@ -3165,12 +3168,12 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X24" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
+      <c r="X24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -3190,10 +3193,10 @@
         <v>1793.922</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H25" s="3">
         <v>10457328</v>
@@ -3212,10 +3215,10 @@
         <v>5774.9175000000005</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
@@ -3243,17 +3246,17 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>10377105</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
@@ -3266,16 +3269,16 @@
         <v>12599.880000000001</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3">
         <v>10377107</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J26" s="3">
         <v>25</v>
@@ -3288,10 +3291,10 @@
         <v>20999.800000000003</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
@@ -3319,20 +3322,20 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X26" s="24" cm="1">
+      <c r="X26" s="36" cm="1">
         <f t="array" ref="X26">SUM(IF(ISNUMBER(V:V), V:V, 0))</f>
         <v>10639.848000000002</v>
       </c>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="26"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="38"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>10377106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3">
         <v>8</v>
@@ -3345,10 +3348,10 @@
         <v>6719.9360000000006</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H27" s="3">
         <v>10427170</v>
@@ -3367,10 +3370,10 @@
         <v>335.988</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
@@ -3398,17 +3401,17 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="29"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="41"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>10377107</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3">
         <v>28</v>
@@ -3421,16 +3424,16 @@
         <v>23519.776000000002</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H28" s="3">
         <v>10377096</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="J28" s="3">
         <v>10</v>
@@ -3443,10 +3446,10 @@
         <v>8399.92</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
@@ -3480,7 +3483,7 @@
         <v>10377108</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3">
         <v>26</v>
@@ -3493,10 +3496,10 @@
         <v>21839.792000000001</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H29" s="3">
         <v>10427563</v>
@@ -3515,10 +3518,10 @@
         <v>3139.3635000000004</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
@@ -3552,7 +3555,7 @@
         <v>10377109</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C30" s="3">
         <v>19</v>
@@ -3565,16 +3568,16 @@
         <v>15959.848000000002</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H30" s="3">
         <v>10377112</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J30" s="3">
         <v>14</v>
@@ -3587,10 +3590,10 @@
         <v>11759.888000000001</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
@@ -3624,7 +3627,7 @@
         <v>10377110</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3">
         <v>8</v>
@@ -3637,16 +3640,16 @@
         <v>6719.9360000000006</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H31" s="3">
         <v>10377111</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J31" s="3">
         <v>19</v>
@@ -3659,10 +3662,10 @@
         <v>15959.848000000002</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
@@ -3696,7 +3699,7 @@
         <v>10377099</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C32" s="3">
         <v>15</v>
@@ -3709,10 +3712,10 @@
         <v>12599.880000000001</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H32" s="3">
         <v>10427571</v>
@@ -3731,10 +3734,10 @@
         <v>3587.8440000000001</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
@@ -3768,7 +3771,7 @@
         <v>10377100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
@@ -3781,10 +3784,10 @@
         <v>4199.96</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H33" s="3">
         <v>10427188</v>
@@ -3803,10 +3806,10 @@
         <v>1847.934</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O33">
         <f t="shared" si="2"/>
@@ -3840,7 +3843,7 @@
         <v>10377101</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3">
         <v>22</v>
@@ -3853,16 +3856,16 @@
         <v>18479.824000000001</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H34" s="3">
         <v>10377104</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J34" s="3">
         <v>10</v>
@@ -3875,10 +3878,10 @@
         <v>8399.92</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O34">
         <f t="shared" si="2"/>
@@ -3912,7 +3915,7 @@
         <v>10377102</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C35" s="3">
         <v>22</v>
@@ -3925,16 +3928,16 @@
         <v>18479.824000000001</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H35" s="3">
         <v>10377109</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J35" s="3">
         <v>16</v>
@@ -3947,10 +3950,10 @@
         <v>13439.872000000001</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O35">
         <f t="shared" si="2"/>
@@ -3984,7 +3987,7 @@
         <v>10377103</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C36" s="3">
         <v>30</v>
@@ -3997,16 +4000,16 @@
         <v>25199.760000000002</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H36" s="3">
         <v>10377103</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J36" s="3">
         <v>28</v>
@@ -4019,10 +4022,10 @@
         <v>23519.776000000002</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O36">
         <f t="shared" si="2"/>
@@ -4056,7 +4059,7 @@
         <v>10377104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3">
         <v>11</v>
@@ -4069,10 +4072,10 @@
         <v>9239.9120000000003</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H37" s="3">
         <v>10427165</v>
@@ -4091,10 +4094,10 @@
         <v>1679.94</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O37">
         <f t="shared" si="2"/>
@@ -4128,7 +4131,7 @@
         <v>10377093</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>9</v>
@@ -4141,10 +4144,10 @@
         <v>7559.9280000000008</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H38" s="3">
         <v>10457330</v>
@@ -4163,10 +4166,10 @@
         <v>5249.9250000000011</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O38">
         <f t="shared" si="2"/>
@@ -4200,7 +4203,7 @@
         <v>10377094</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>17</v>
@@ -4213,10 +4216,10 @@
         <v>14279.864000000001</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H39" s="3">
         <v>10427163</v>
@@ -4235,10 +4238,10 @@
         <v>3023.8919999999998</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O39">
         <f t="shared" si="2"/>
@@ -4272,7 +4275,7 @@
         <v>10377095</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>25</v>
@@ -4285,10 +4288,10 @@
         <v>20999.800000000003</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H40" s="3">
         <v>10427569</v>
@@ -4307,10 +4310,10 @@
         <v>1345.4415000000001</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O40">
         <f t="shared" si="2"/>
@@ -4344,7 +4347,7 @@
         <v>10377096</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>12</v>
@@ -4357,16 +4360,16 @@
         <v>10079.904</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H41" s="3">
         <v>10377101</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J41" s="3">
         <v>18</v>
@@ -4379,10 +4382,10 @@
         <v>15119.856000000002</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
@@ -4416,7 +4419,7 @@
         <v>10377097</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C42" s="3">
         <v>7</v>
@@ -4429,10 +4432,10 @@
         <v>5879.9440000000004</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H42" s="3">
         <v>10457333</v>
@@ -4451,10 +4454,10 @@
         <v>11103.592500000001</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O42">
         <f t="shared" si="2"/>
@@ -4488,7 +4491,7 @@
         <v>10377098</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3">
         <v>26</v>
@@ -4501,16 +4504,16 @@
         <v>21839.792000000001</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H43" s="3">
         <v>10377098</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J43" s="3">
         <v>23</v>
@@ -4523,10 +4526,10 @@
         <v>19319.816000000003</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O43">
         <f t="shared" si="2"/>
@@ -4560,7 +4563,7 @@
         <v>10377111</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3">
         <v>21</v>
@@ -4573,16 +4576,16 @@
         <v>17639.832000000002</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H44" s="3">
         <v>10377102</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J44" s="3">
         <v>18</v>
@@ -4595,10 +4598,10 @@
         <v>15119.856000000002</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O44">
         <f t="shared" si="2"/>
@@ -4632,7 +4635,7 @@
         <v>10377112</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C45" s="3">
         <v>18</v>
@@ -4645,10 +4648,10 @@
         <v>15119.856000000002</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H45" s="3">
         <v>10427189</v>
@@ -4667,10 +4670,10 @@
         <v>2687.904</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O45">
         <f t="shared" si="2"/>
@@ -4704,7 +4707,7 @@
         <v>10377113</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C46" s="3">
         <v>8</v>
@@ -4717,16 +4720,16 @@
         <v>6719.9360000000006</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H46" s="3">
         <v>10377097</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="J46" s="3">
         <v>5</v>
@@ -4739,10 +4742,10 @@
         <v>4199.96</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O46">
         <f t="shared" si="2"/>
@@ -4776,7 +4779,7 @@
         <v>10377114</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C47" s="3">
         <v>21</v>
@@ -4789,16 +4792,16 @@
         <v>17639.832000000002</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H47" s="3">
         <v>10377100</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J47" s="3">
         <v>5</v>
@@ -4811,10 +4814,10 @@
         <v>4199.96</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O47">
         <f t="shared" si="2"/>
@@ -4848,7 +4851,7 @@
         <v>10377115</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C48" s="3">
         <v>30</v>
@@ -4861,10 +4864,10 @@
         <v>25199.760000000002</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H48" s="3">
         <v>10427171</v>
@@ -4883,10 +4886,10 @@
         <v>2351.9160000000002</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O48">
         <f t="shared" si="2"/>
@@ -4920,7 +4923,7 @@
         <v>10377116</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C49" s="3">
         <v>23</v>
@@ -4933,10 +4936,10 @@
         <v>19319.816000000003</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H49" s="3">
         <v>10427162</v>
@@ -4955,10 +4958,10 @@
         <v>3023.8919999999998</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="N49" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O49">
         <f t="shared" si="2"/>
@@ -5005,10 +5008,10 @@
         <v>2855.8980000000001</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H50" s="3">
         <v>10427173</v>
@@ -5027,10 +5030,10 @@
         <v>3695.8679999999999</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O50">
         <f t="shared" si="2"/>
@@ -5077,16 +5080,16 @@
         <v>1679.94</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H51" s="3">
         <v>10377093</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J51" s="3">
         <v>9</v>
@@ -5099,10 +5102,10 @@
         <v>7559.9280000000008</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O51">
         <f t="shared" si="2"/>
@@ -5139,10 +5142,10 @@
         <v>1847.934</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H52" s="3">
         <v>10427575</v>
@@ -5161,10 +5164,10 @@
         <v>3139.3635000000004</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O52">
         <f t="shared" si="2"/>
@@ -5201,10 +5204,10 @@
         <v>1679.94</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H53">
         <v>10353748</v>
@@ -5223,10 +5226,10 @@
         <v>2799.9600000000005</v>
       </c>
       <c r="M53" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O53" t="str">
         <f>IFERROR(INDEX(A:A, MATCH(H53, A:A, 0)), "No Match")</f>
@@ -5263,10 +5266,10 @@
         <v>2519.91</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H54">
         <v>10353749</v>
@@ -5285,10 +5288,10 @@
         <v>1679.9760000000001</v>
       </c>
       <c r="M54" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="2"/>
@@ -5325,10 +5328,10 @@
         <v>3023.8919999999998</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H55">
         <v>10353750</v>
@@ -5347,10 +5350,10 @@
         <v>4479.9360000000006</v>
       </c>
       <c r="M55" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="2"/>
@@ -5387,10 +5390,10 @@
         <v>4199.8500000000004</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H56">
         <v>10353751</v>
@@ -5409,10 +5412,10 @@
         <v>559.99200000000008</v>
       </c>
       <c r="M56" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="2"/>
@@ -5449,10 +5452,10 @@
         <v>3191.886</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="H57">
         <v>10353752</v>
@@ -5471,10 +5474,10 @@
         <v>1119.9840000000002</v>
       </c>
       <c r="M57" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="2"/>
@@ -5511,10 +5514,10 @@
         <v>2183.922</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -5535,10 +5538,10 @@
         <v>3191.886</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -5559,10 +5562,10 @@
         <v>2855.8980000000001</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -5583,10 +5586,10 @@
         <v>3359.88</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -5607,10 +5610,10 @@
         <v>1175.9580000000001</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -5631,10 +5634,10 @@
         <v>2519.91</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -5655,10 +5658,10 @@
         <v>3023.8919999999998</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5679,10 +5682,10 @@
         <v>2519.91</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5703,10 +5706,10 @@
         <v>3695.8679999999999</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -5727,10 +5730,10 @@
         <v>3191.886</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5751,10 +5754,10 @@
         <v>2351.9160000000002</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5775,10 +5778,10 @@
         <v>1679.94</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5799,10 +5802,10 @@
         <v>4031.8559999999998</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5823,10 +5826,10 @@
         <v>2687.904</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5847,10 +5850,10 @@
         <v>1343.952</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5871,10 +5874,10 @@
         <v>4199.8500000000004</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5895,10 +5898,10 @@
         <v>1175.9580000000001</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5919,10 +5922,10 @@
         <v>1679.94</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5943,10 +5946,10 @@
         <v>1679.94</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5967,10 +5970,10 @@
         <v>4367.8440000000001</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5991,10 +5994,10 @@
         <v>5039.82</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -6015,10 +6018,10 @@
         <v>4031.8559999999998</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6039,10 +6042,10 @@
         <v>3359.88</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6063,22 +6066,14 @@
         <v>2015.9279999999999</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="X6:AA7"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
     <mergeCell ref="X20:AA21"/>
     <mergeCell ref="X22:AA23"/>
     <mergeCell ref="X24:AA25"/>
@@ -6088,6 +6083,14 @@
     <mergeCell ref="X13:AA14"/>
     <mergeCell ref="X15:AA16"/>
     <mergeCell ref="X17:AA18"/>
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="X6:AA7"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6121,7 +6124,7 @@
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
       <c r="H1" s="61" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
@@ -6130,7 +6133,7 @@
       <c r="M1" s="61"/>
       <c r="N1" s="61"/>
       <c r="O1" s="61" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="P1" s="61"/>
       <c r="Q1" s="61"/>
@@ -6186,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>2</v>
@@ -6226,7 +6229,7 @@
         <v>896.96100000000001</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>6</v>
@@ -6248,7 +6251,7 @@
         <v>448.48050000000001</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>6</v>
@@ -6280,7 +6283,7 @@
         <v>896.96100000000001</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
@@ -6320,19 +6323,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>10353748</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D1">
         <v>396095</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F1">
         <v>699.99</v>
@@ -6348,13 +6351,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>10353749</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>396094</v>
@@ -6376,13 +6379,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>10353750</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>396093</v>
@@ -6404,13 +6407,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>10353751</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>396092</v>
@@ -6432,19 +6435,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>10353752</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>396091</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>699.99</v>
